--- a/Requirements/Chart CRM.xlsx
+++ b/Requirements/Chart CRM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sampath FSD\Elixer\CRM\CRMTransactionsAPI\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB051CDA-A7DD-47A1-81E9-322F127B02A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0F154B-D118-4294-B804-D6B61F3B1772}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AE822112-A962-4834-AE7B-E741399A28A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE822112-A962-4834-AE7B-E741399A28A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2153,6 +2153,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6ECA-4F39-B3E5-25216F746BC8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2168,6 +2173,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6ECA-4F39-B3E5-25216F746BC8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2183,6 +2193,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6ECA-4F39-B3E5-25216F746BC8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -13206,25 +13221,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FC7DB1-D6CC-4D06-8C61-C4D23E276745}">
   <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="O128" sqref="O128"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -13232,7 +13247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -13249,7 +13264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -13263,7 +13278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -13277,7 +13292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -13291,7 +13306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -13305,7 +13320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -13319,7 +13334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -13333,7 +13348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -13347,7 +13362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -13361,7 +13376,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -13375,7 +13390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -13389,12 +13404,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -13402,7 +13417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>19</v>
       </c>
@@ -13419,7 +13434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -13433,7 +13448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -13447,7 +13462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -13461,7 +13476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -13475,7 +13490,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -13489,7 +13504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -13503,7 +13518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -13517,7 +13532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -13531,7 +13546,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -13545,7 +13560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -13559,7 +13574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -13576,17 +13591,17 @@
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -13600,7 +13615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43983</v>
       </c>
@@ -13621,7 +13636,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44013</v>
       </c>
@@ -13642,7 +13657,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44044</v>
       </c>
@@ -13663,7 +13678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44075</v>
       </c>
@@ -13684,7 +13699,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44105</v>
       </c>
@@ -13705,7 +13720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44136</v>
       </c>
@@ -13726,7 +13741,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44166</v>
       </c>
@@ -13747,7 +13762,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44197</v>
       </c>
@@ -13768,7 +13783,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44228</v>
       </c>
@@ -13789,7 +13804,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44256</v>
       </c>
@@ -13810,12 +13825,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -13823,7 +13838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>29</v>
       </c>
@@ -13837,7 +13852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -13854,7 +13869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -13871,7 +13886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -13888,7 +13903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -13905,7 +13920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -13922,7 +13937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -13939,7 +13954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -13956,7 +13971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -13973,7 +13988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -13990,7 +14005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -14007,12 +14022,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>32</v>
       </c>
@@ -14032,7 +14047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -14055,7 +14070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -14078,7 +14093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -14101,7 +14116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -14124,7 +14139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -14147,7 +14162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -14170,7 +14185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -14193,7 +14208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -14216,7 +14231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -14239,7 +14254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -14262,12 +14277,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>38</v>
       </c>
@@ -14302,7 +14317,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -14340,7 +14355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -14378,7 +14393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -14416,7 +14431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -14454,7 +14469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -14492,7 +14507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -14530,7 +14545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -14568,7 +14583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -14606,7 +14621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -14644,7 +14659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -14682,12 +14697,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>38</v>
       </c>
@@ -14722,7 +14737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -14760,7 +14775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>1</v>
       </c>
@@ -14798,7 +14813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -14836,7 +14851,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -14874,7 +14889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -14912,7 +14927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -14950,7 +14965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -14988,7 +15003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -15026,7 +15041,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -15064,7 +15079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>12</v>
       </c>
